--- a/UPOMenu-Plantilla.xlsx
+++ b/UPOMenu-Plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\Trabajo TSI\UPOMenu-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA17F9F-172D-49CC-B3CB-7188F8F88C23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4D74DB3-C3F8-47A5-9CCB-2619C1168854}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
       <selection activeCell="B3" sqref="B3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,7 +1393,9 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
